--- a/xlsx/财政部_intext.xlsx
+++ b/xlsx/财政部_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
   <si>
     <t>财政部</t>
   </si>
@@ -29,7 +29,7 @@
     <t>政府</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_财政部</t>
+    <t>政策_政策_货币政策_财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E9%98%81</t>
@@ -89,25 +89,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>香港特別行政區</t>
+    <t>香港特别行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%B6%93%E4%BA%8B%E5%8B%99%E5%8F%8A%E5%BA%AB%E5%8B%99%E5%B1%80</t>
   </si>
   <si>
-    <t>財經事務及庫務局</t>
+    <t>财经事务及库务局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E8%B2%A1%E6%94%BF%E5%8F%B8%E5%8F%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>香港特別行政區財政司司長</t>
+    <t>香港特别行政区财政司司长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%BD</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>財務大臣</t>
+    <t>财务大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%97%8F%E5%A4%A7%E8%87%A3</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E4%BC%81%E5%8A%83%E8%B2%A1%E6%94%BF%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>大韓民國企劃財政部長</t>
+    <t>大韩民国企划财政部长</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
@@ -227,9 +227,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0</t>
   </si>
   <si>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>加拿大財政部</t>
+    <t>加拿大财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -365,25 +362,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E7%B6%93%E6%BF%9F%E8%B2%A1%E6%94%BF%E5%8F%B8</t>
   </si>
   <si>
-    <t>澳門特別行政區經濟財政司</t>
+    <t>澳门特别行政区经济财政司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E8%B2%A1%E6%94%BF%E5%B1%80</t>
   </si>
   <si>
-    <t>澳門財政局</t>
+    <t>澳门财政局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://el.wikipedia.org/wiki/%CE%A5%CF%80%CE%BF%CF%85%CF%81%CE%B3%CE%B5%CE%AF%CE%BF_%CE%9F%CE%B9%CE%BA%CE%BF%CE%BD%CE%BF%CE%BC%CE%B9%CE%BA%CF%8E%CE%BD_%CF%84%CE%B7%CF%82_%CE%9A%CF%8D%CF%80%CF%81%CE%BF%CF%85</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://da.wikipedia.org/wiki/Finansministeriet</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ministry_of_Finance_and_Economic_Development_(Ethiopia)</t>
@@ -473,19 +470,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>法國財政部</t>
+    <t>法国财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>德國財政部</t>
+    <t>德国财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%B4%A2%E6%94%BF%E9%83%A8</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ministry_of_Finance_(Iceland)</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E8%B4%A2%E5%8A%A1%E9%83%A8</t>
@@ -581,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%B6%93%E6%BF%9F%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>意大利經濟財政部</t>
+    <t>意大利经济财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ministry_of_Finance_(Montenegro)</t>
@@ -671,21 +668,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>荷蘭財政部</t>
+    <t>荷兰财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Minister_of_Finance_(New_Zealand)</t>
   </si>
   <si>
@@ -719,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Ministerio_de_Econom%C3%ADa_y_Finanzas_del_Per%C3%BA</t>
@@ -731,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Department_of_Finance_(Philippines)</t>
@@ -743,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Finance_Ministers_of_Malta</t>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://pl.wikipedia.org/wiki/Ministerstwo_Finans%C3%B3w</t>
@@ -767,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://ro.wikipedia.org/wiki/Ministerul_Finan%C8%9Belor_Publice_(Rom%C3%A2nia)</t>
@@ -779,9 +773,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://ru.wikipedia.org/wiki/%D0%9C%D0%B8%D0%BD%D0%B8%D1%81%D1%82%D0%B5%D1%80%D1%81%D1%82%D0%B2%D0%BE_%D1%84%D0%B8%D0%BD%D0%B0%D0%BD%D1%81%D0%BE%D0%B2_%D0%A0%D0%BE%D1%81%D1%81%D0%B8%D0%B9%D1%81%D0%BA%D0%BE%D0%B9_%D0%A4%D0%B5%D0%B4%D0%B5%D1%80%D0%B0%D1%86%D0%B8%D0%B8</t>
   </si>
   <si>
@@ -797,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Minister_of_Finance_(Serbia)</t>
@@ -815,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>新加坡財政部</t>
+    <t>新加坡财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://th.wikipedia.org/wiki/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%97%E0%B8%A3%E0%B8%A7%E0%B8%87%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%84%E0%B8%A5%E0%B8%B1%E0%B8%87_(%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%97%E0%B8%A8%E0%B9%84%E0%B8%97%E0%B8%A2)</t>
@@ -941,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cabinet_Secretary_for_Finance,_Employment_and_Sustainable_Growth</t>
@@ -953,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
   </si>
   <si>
-    <t>威爾士</t>
+    <t>威尔士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Minister_for_Finance_(Wales)</t>
@@ -977,9 +968,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
@@ -1001,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1%E6%94%BF</t>
   </si>
   <si>
-    <t>公共財政</t>
+    <t>公共财政</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2375,7 @@
         <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2413,10 +2401,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2442,10 +2430,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2471,10 +2459,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2500,10 +2488,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2529,10 +2517,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2558,10 +2546,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2587,10 +2575,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2616,10 +2604,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2645,10 +2633,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2674,10 +2662,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2703,10 +2691,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2732,10 +2720,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2761,10 +2749,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2790,10 +2778,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2819,10 +2807,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2848,10 +2836,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2877,10 +2865,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2906,10 +2894,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2935,10 +2923,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2964,10 +2952,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2993,10 +2981,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3022,10 +3010,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -3080,10 +3068,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -3109,10 +3097,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3138,10 +3126,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3167,10 +3155,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3196,10 +3184,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3225,10 +3213,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3254,10 +3242,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3283,10 +3271,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3312,10 +3300,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3341,10 +3329,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3370,10 +3358,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3399,10 +3387,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3428,10 +3416,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3457,10 +3445,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3486,10 +3474,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3515,10 +3503,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3544,10 +3532,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3573,10 +3561,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3602,10 +3590,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3631,10 +3619,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3660,10 +3648,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3689,10 +3677,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3718,10 +3706,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3747,10 +3735,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3776,10 +3764,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3805,10 +3793,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3834,10 +3822,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -3863,10 +3851,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3892,10 +3880,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3921,10 +3909,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3950,10 +3938,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -3979,10 +3967,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4008,10 +3996,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4037,10 +4025,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4066,10 +4054,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4095,10 +4083,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4124,10 +4112,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4153,10 +4141,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4182,10 +4170,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4211,10 +4199,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4240,10 +4228,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4269,10 +4257,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4298,10 +4286,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4327,10 +4315,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4356,10 +4344,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4385,10 +4373,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4414,10 +4402,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4443,10 +4431,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4472,10 +4460,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4501,10 +4489,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4530,10 +4518,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4559,10 +4547,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4588,10 +4576,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4617,10 +4605,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4646,10 +4634,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4675,10 +4663,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -4704,10 +4692,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4733,10 +4721,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4762,10 +4750,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4791,10 +4779,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4820,10 +4808,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4849,10 +4837,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -4878,10 +4866,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4907,10 +4895,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4936,10 +4924,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4965,10 +4953,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -4994,10 +4982,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5023,10 +5011,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5052,10 +5040,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5081,10 +5069,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>54</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5110,10 +5098,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5139,10 +5127,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5168,10 +5156,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5197,10 +5185,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5226,10 +5214,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5255,10 +5243,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5284,10 +5272,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5313,10 +5301,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5371,10 +5359,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5400,10 +5388,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5429,10 +5417,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>7</v>
@@ -5458,10 +5446,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5487,10 +5475,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5516,10 +5504,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5545,10 +5533,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5574,10 +5562,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5603,10 +5591,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5632,10 +5620,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -5661,10 +5649,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5690,10 +5678,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -5719,10 +5707,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5748,10 +5736,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5777,10 +5765,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5809,7 +5797,7 @@
         <v>69</v>
       </c>
       <c r="F154" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5835,10 +5823,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5864,10 +5852,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -5893,10 +5881,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5922,10 +5910,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5951,10 +5939,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5980,10 +5968,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6009,10 +5997,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6038,10 +6026,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6067,10 +6055,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6096,10 +6084,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>34</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6125,10 +6113,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6154,10 +6142,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -6183,10 +6171,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6212,10 +6200,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
